--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250107.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250107.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9998.팀프로젝트\01.분석설계\프로젝트 관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9998.팀프로젝트\00.프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="84">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,10 @@
   </si>
   <si>
     <t>2025-01-08 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Earth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,6 +1130,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,6 +1232,15 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,39 +1250,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,21 +1258,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,6 +1302,10 @@
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1404,13 +1412,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1464,14 +1472,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
@@ -1517,20 +1530,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -1576,20 +1594,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -1635,20 +1658,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1694,20 +1722,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1753,20 +1786,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1812,20 +1850,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1871,7 +1914,71 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1881,16 +1988,16 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="733425" cy="285750"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
+                  <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2200,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z37"/>
+  <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2219,17 +2326,17 @@
     <col min="9" max="10" width="3.625" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="25" width="3.625" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="60" customWidth="1"/>
+    <col min="26" max="26" width="3.625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
       <c r="H2" s="3"/>
@@ -2254,74 +2361,74 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="44">
         <v>45670</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
       </c>
       <c r="J5" s="19">
-        <f>I5+1</f>
+        <f t="shared" ref="J5:M6" si="0">I5+1</f>
         <v>45671</v>
       </c>
       <c r="K5" s="19">
-        <f>J5+1</f>
+        <f t="shared" si="0"/>
         <v>45672</v>
       </c>
       <c r="L5" s="19">
-        <f>K5+1</f>
+        <f t="shared" si="0"/>
         <v>45673</v>
       </c>
       <c r="M5" s="19">
-        <f>L5+1</f>
+        <f t="shared" si="0"/>
         <v>45674</v>
       </c>
       <c r="N5" s="19">
@@ -2329,19 +2436,19 @@
         <v>45677</v>
       </c>
       <c r="O5" s="19">
-        <f>N5+1</f>
+        <f t="shared" ref="O5:R6" si="1">N5+1</f>
         <v>45678</v>
       </c>
       <c r="P5" s="19">
-        <f>O5+1</f>
+        <f t="shared" si="1"/>
         <v>45679</v>
       </c>
       <c r="Q5" s="19">
-        <f>P5+1</f>
+        <f t="shared" si="1"/>
         <v>45680</v>
       </c>
       <c r="R5" s="19">
-        <f>Q5+1</f>
+        <f t="shared" si="1"/>
         <v>45681</v>
       </c>
       <c r="S5" s="19">
@@ -2357,103 +2464,103 @@
         <v>45691</v>
       </c>
       <c r="V5" s="19">
-        <f>U5+1</f>
+        <f t="shared" ref="V5:Y6" si="2">U5+1</f>
         <v>45692</v>
       </c>
       <c r="W5" s="19">
-        <f>V5+1</f>
+        <f t="shared" si="2"/>
         <v>45693</v>
       </c>
       <c r="X5" s="19">
-        <f>W5+1</f>
+        <f t="shared" si="2"/>
         <v>45694</v>
       </c>
       <c r="Y5" s="19">
-        <f>X5+1</f>
+        <f t="shared" si="2"/>
         <v>45695</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="34">
         <f>Y5+3</f>
         <v>45698</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="45"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="59">
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="32">
         <f>I5</f>
         <v>45670</v>
       </c>
-      <c r="J6" s="59">
-        <f>I6+1</f>
+      <c r="J6" s="32">
+        <f t="shared" si="0"/>
         <v>45671</v>
       </c>
-      <c r="K6" s="59">
-        <f>J6+1</f>
+      <c r="K6" s="32">
+        <f t="shared" si="0"/>
         <v>45672</v>
       </c>
-      <c r="L6" s="59">
-        <f>K6+1</f>
+      <c r="L6" s="32">
+        <f t="shared" si="0"/>
         <v>45673</v>
       </c>
-      <c r="M6" s="59">
-        <f>L6+1</f>
+      <c r="M6" s="32">
+        <f t="shared" si="0"/>
         <v>45674</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="32">
         <f>M6+3</f>
         <v>45677</v>
       </c>
-      <c r="O6" s="59">
-        <f>N6+1</f>
+      <c r="O6" s="32">
+        <f t="shared" si="1"/>
         <v>45678</v>
       </c>
-      <c r="P6" s="59">
-        <f>O6+1</f>
+      <c r="P6" s="32">
+        <f t="shared" si="1"/>
         <v>45679</v>
       </c>
-      <c r="Q6" s="59">
-        <f>P6+1</f>
+      <c r="Q6" s="32">
+        <f t="shared" si="1"/>
         <v>45680</v>
       </c>
-      <c r="R6" s="59">
-        <f>Q6+1</f>
+      <c r="R6" s="32">
+        <f t="shared" si="1"/>
         <v>45681</v>
       </c>
-      <c r="S6" s="59">
+      <c r="S6" s="32">
         <f>R6+3</f>
         <v>45684</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="32">
         <f>S6+4</f>
         <v>45688</v>
       </c>
-      <c r="U6" s="59">
+      <c r="U6" s="32">
         <f>T6+3</f>
         <v>45691</v>
       </c>
-      <c r="V6" s="59">
-        <f>U6+1</f>
+      <c r="V6" s="32">
+        <f t="shared" si="2"/>
         <v>45692</v>
       </c>
-      <c r="W6" s="59">
-        <f>V6+1</f>
+      <c r="W6" s="32">
+        <f t="shared" si="2"/>
         <v>45693</v>
       </c>
-      <c r="X6" s="59">
-        <f>W6+1</f>
+      <c r="X6" s="32">
+        <f t="shared" si="2"/>
         <v>45694</v>
       </c>
-      <c r="Y6" s="59">
-        <f>X6+1</f>
+      <c r="Y6" s="32">
+        <f t="shared" si="2"/>
         <v>45695</v>
       </c>
-      <c r="Z6" s="62">
+      <c r="Z6" s="35">
         <f>Y6+3</f>
         <v>45698</v>
       </c>
@@ -2463,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="58"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="11">
         <v>45670</v>
       </c>
@@ -2496,7 +2603,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="63"/>
+      <c r="Z7" s="36"/>
     </row>
     <row r="8" spans="2:26" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
@@ -2509,7 +2616,7 @@
         <v>45698</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" ref="G8:G37" si="0">IF(F8="","",F8+1-E8)</f>
+        <f t="shared" ref="G8:G38" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
       </c>
       <c r="H8" s="18">
@@ -2532,7 +2639,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="64"/>
+      <c r="Z8" s="37"/>
     </row>
     <row r="9" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -2541,7 +2648,7 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="11">
         <v>45670</v>
       </c>
@@ -2549,7 +2656,7 @@
         <v>45698</v>
       </c>
       <c r="G9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="H9" s="18">
@@ -2572,7 +2679,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="64"/>
+      <c r="Z9" s="37"/>
     </row>
     <row r="10" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
@@ -2585,7 +2692,7 @@
         <v>45698</v>
       </c>
       <c r="G10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="H10" s="18">
@@ -2608,14 +2715,14 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="64"/>
+      <c r="Z10" s="37"/>
     </row>
     <row r="11" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="58"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="11">
         <v>45670</v>
       </c>
@@ -2623,7 +2730,7 @@
         <v>45698</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="H11" s="18">
@@ -2646,7 +2753,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="64"/>
+      <c r="Z11" s="37"/>
     </row>
     <row r="12" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
@@ -2659,7 +2766,7 @@
         <v>45698</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="H12" s="18">
@@ -2682,14 +2789,14 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="64"/>
+      <c r="Z12" s="37"/>
     </row>
     <row r="13" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="11">
         <v>45670</v>
       </c>
@@ -2697,7 +2804,7 @@
         <v>45674</v>
       </c>
       <c r="G13" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H13" s="18">
@@ -2720,7 +2827,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="64"/>
+      <c r="Z13" s="37"/>
     </row>
     <row r="14" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
@@ -2737,7 +2844,7 @@
         <v>45674</v>
       </c>
       <c r="G14" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H14" s="18">
@@ -2760,7 +2867,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="64"/>
+      <c r="Z14" s="37"/>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
@@ -2777,7 +2884,7 @@
         <v>45674</v>
       </c>
       <c r="G15" s="22">
-        <f t="shared" ref="G15:G27" si="1">IF(F15="","",F15+1-E15)</f>
+        <f t="shared" ref="G15:G28" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
       </c>
       <c r="H15" s="18">
@@ -2800,7 +2907,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="64"/>
+      <c r="Z15" s="37"/>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
@@ -2815,7 +2922,7 @@
         <v>45674</v>
       </c>
       <c r="G16" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H16" s="18">
@@ -2838,7 +2945,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="64"/>
+      <c r="Z16" s="37"/>
     </row>
     <row r="17" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
@@ -2853,7 +2960,7 @@
         <v>45674</v>
       </c>
       <c r="G17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H17" s="18">
@@ -2876,7 +2983,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="64"/>
+      <c r="Z17" s="37"/>
     </row>
     <row r="18" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
@@ -2891,7 +2998,7 @@
         <v>45674</v>
       </c>
       <c r="G18" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H18" s="18">
@@ -2914,7 +3021,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="64"/>
+      <c r="Z18" s="37"/>
     </row>
     <row r="19" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
@@ -2929,7 +3036,7 @@
         <v>45674</v>
       </c>
       <c r="G19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H19" s="18">
@@ -2952,7 +3059,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="64"/>
+      <c r="Z19" s="37"/>
     </row>
     <row r="20" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
@@ -2967,7 +3074,7 @@
         <v>45674</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H20" s="18">
@@ -2990,7 +3097,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="64"/>
+      <c r="Z20" s="37"/>
     </row>
     <row r="21" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
@@ -3005,7 +3112,7 @@
         <v>45674</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H21" s="18">
@@ -3028,7 +3135,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="64"/>
+      <c r="Z21" s="37"/>
     </row>
     <row r="22" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
@@ -3043,7 +3150,7 @@
         <v>45674</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H22" s="18">
@@ -3066,7 +3173,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="64"/>
+      <c r="Z22" s="37"/>
     </row>
     <row r="23" spans="2:26" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
@@ -3075,7 +3182,7 @@
       <c r="C23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="11">
         <v>45670</v>
       </c>
@@ -3083,7 +3190,7 @@
         <v>45674</v>
       </c>
       <c r="G23" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H23" s="18">
@@ -3106,7 +3213,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="64"/>
+      <c r="Z23" s="37"/>
     </row>
     <row r="24" spans="2:26" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
@@ -3123,7 +3230,7 @@
         <v>45674</v>
       </c>
       <c r="G24" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H24" s="18">
@@ -3146,7 +3253,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="64"/>
+      <c r="Z24" s="37"/>
     </row>
     <row r="25" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
@@ -3163,7 +3270,7 @@
         <v>45674</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H25" s="18">
@@ -3186,7 +3293,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="64"/>
+      <c r="Z25" s="37"/>
     </row>
     <row r="26" spans="2:26" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
@@ -3203,7 +3310,7 @@
         <v>45674</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H26" s="18">
@@ -3226,7 +3333,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="64"/>
+      <c r="Z26" s="37"/>
     </row>
     <row r="27" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
@@ -3243,7 +3350,7 @@
         <v>45674</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H27" s="18">
@@ -3266,16 +3373,16 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="64"/>
+      <c r="Z27" s="37"/>
     </row>
     <row r="28" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="11">
         <v>45677</v>
       </c>
@@ -3283,12 +3390,10 @@
         <v>45678</v>
       </c>
       <c r="G28" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
+      <c r="H28" s="18"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3306,16 +3411,16 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="64"/>
+      <c r="Z28" s="37"/>
     </row>
     <row r="29" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="58"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="11">
         <v>45677</v>
       </c>
@@ -3323,7 +3428,7 @@
         <v>45678</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H29" s="18">
@@ -3346,24 +3451,24 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="64"/>
+      <c r="Z29" s="37"/>
     </row>
     <row r="30" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="11">
+        <v>45677</v>
+      </c>
+      <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="F30" s="11">
-        <v>45679</v>
-      </c>
       <c r="G30" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H30" s="18">
@@ -3386,16 +3491,16 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="64"/>
+      <c r="Z30" s="37"/>
     </row>
     <row r="31" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="11">
         <v>45679</v>
       </c>
@@ -3403,7 +3508,7 @@
         <v>45680</v>
       </c>
       <c r="G31" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H31" s="18">
@@ -3426,24 +3531,24 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="64"/>
+      <c r="Z31" s="37"/>
     </row>
     <row r="32" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="11">
+        <v>45679</v>
+      </c>
+      <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="F32" s="11">
-        <v>45681</v>
-      </c>
       <c r="G32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H32" s="18">
@@ -3466,16 +3571,16 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="64"/>
-    </row>
-    <row r="33" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z32" s="37"/>
+    </row>
+    <row r="33" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="58"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="11">
         <v>45681</v>
       </c>
@@ -3483,7 +3588,7 @@
         <v>45684</v>
       </c>
       <c r="G33" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H33" s="18">
@@ -3506,23 +3611,25 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="64"/>
-    </row>
-    <row r="34" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z33" s="37"/>
+    </row>
+    <row r="34" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="31"/>
       <c r="E34" s="11">
-        <v>45688</v>
+        <v>45679</v>
       </c>
       <c r="F34" s="11">
-        <v>45694</v>
+        <v>45680</v>
       </c>
       <c r="G34" s="22">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H34" s="18">
         <v>0</v>
@@ -3544,23 +3651,23 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="64"/>
-    </row>
-    <row r="35" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
-        <v>16</v>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="35" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="18"/>
       <c r="E35" s="11">
-        <v>45670</v>
+        <v>45688</v>
       </c>
       <c r="F35" s="11">
-        <v>45698</v>
+        <v>45694</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="H35" s="18">
         <v>0</v>
@@ -3582,11 +3689,11 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="64"/>
-    </row>
-    <row r="36" spans="2:26" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
-        <v>17</v>
+      <c r="Z35" s="37"/>
+    </row>
+    <row r="36" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="18"/>
@@ -3597,7 +3704,7 @@
         <v>45698</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="H36" s="18">
@@ -3620,11 +3727,11 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="64"/>
-    </row>
-    <row r="37" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>18</v>
+      <c r="Z36" s="37"/>
+    </row>
+    <row r="37" spans="2:26" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="18"/>
@@ -3635,7 +3742,7 @@
         <v>45698</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="H37" s="18">
@@ -3658,7 +3765,45 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="64"/>
+      <c r="Z37" s="37"/>
+    </row>
+    <row r="38" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="11">
+        <v>45670</v>
+      </c>
+      <c r="F38" s="11">
+        <v>45698</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3673,18 +3818,18 @@
     <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I5:Z37">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="I5:Z38">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>I$5=$F$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:Z37">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="I7:Z38">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(I$5&gt;=$E7,I$5&lt;=$F7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H37">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="H7:H38">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3697,8 +3842,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D37">
-    <cfRule type="dataBar" priority="66">
+  <conditionalFormatting sqref="D7:D27 D29:D38">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3707,6 +3852,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A1360671-EAB7-496F-A6C6-7156D32B39EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71F59B32-8F1F-4736-8B79-6FF0ADE0672A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3729,13 +3888,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3833,19 +3992,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId9" name="Check Box 13">
+            <control shapeId="1038" r:id="rId9" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3855,7 +4014,73 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId10" name="Check Box 14">
+            <control shapeId="1039" r:id="rId10" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId11" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId12" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId13" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3877,64 +4102,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId11" name="Check Box 15">
+            <control shapeId="1042" r:id="rId14" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId12" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId13" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3958,7 +4139,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H7:H37</xm:sqref>
+          <xm:sqref>H7:H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A1360671-EAB7-496F-A6C6-7156D32B39EE}">
@@ -3971,7 +4152,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D37</xm:sqref>
+          <xm:sqref>D7:D27 D29:D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71F59B32-8F1F-4736-8B79-6FF0ADE0672A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3983,7 +4177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3997,18 +4191,18 @@
     <col min="8" max="8" width="29.625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
     <col min="10" max="23" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.125" style="60" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.125" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
       <c r="I2" s="3"/>
@@ -4029,131 +4223,131 @@
       <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="65" t="s">
+      <c r="X3" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="66" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="72"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4222,7 +4416,7 @@
       <c r="W7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="69" t="s">
+      <c r="X7" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4251,7 +4445,7 @@
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
-      <c r="X8" s="70"/>
+      <c r="X8" s="40"/>
     </row>
     <row r="9" spans="1:24" ht="63.75" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
@@ -4278,7 +4472,7 @@
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
-      <c r="X9" s="70"/>
+      <c r="X9" s="40"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H10" s="12"/>
@@ -4297,131 +4491,131 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="71"/>
+      <c r="X10" s="41"/>
     </row>
     <row r="11" spans="1:24" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="E11"/>
-      <c r="X11" s="71"/>
+      <c r="X11" s="41"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="66" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="53"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="72"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="54"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="68"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="73"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -4490,7 +4684,7 @@
       <c r="W15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="X15" s="69" t="s">
+      <c r="X15" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4519,129 +4713,129 @@
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
-      <c r="X16" s="70"/>
+      <c r="X16" s="40"/>
     </row>
     <row r="17" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X17" s="71"/>
+      <c r="X17" s="41"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
-      <c r="C18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="66" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="72"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="54"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="68"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="73"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -4710,7 +4904,7 @@
       <c r="W21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="X21" s="69" t="s">
+      <c r="X21" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4739,7 +4933,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="28"/>
       <c r="W22" s="28"/>
-      <c r="X22" s="72"/>
+      <c r="X22" s="42"/>
     </row>
     <row r="23" spans="2:24" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
@@ -4766,129 +4960,129 @@
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
-      <c r="X23" s="70"/>
+      <c r="X23" s="40"/>
     </row>
     <row r="24" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X24" s="71"/>
+      <c r="X24" s="41"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52"/>
-      <c r="C25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="66" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="67"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="72"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="68"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="73"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -4957,7 +5151,7 @@
       <c r="W28" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="X28" s="69" t="s">
+      <c r="X28" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4986,21 +5180,82 @@
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
-      <c r="X29" s="73"/>
+      <c r="X29" s="43"/>
     </row>
     <row r="30" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="G18:G20"/>
@@ -5017,75 +5272,14 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250107.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250107.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="87">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,29 @@
     <t>서브페이지 - Earth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 발사믹 서브페이지 생성
+2. 피그마 프로젝트 생성 및 서브페이지 제작
+3. 개발환경 구충
+- 깃허브 레파지로티 생성
+- 프로젝트 계획서 수정 및 보완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 발사믹
+- 추후 공통영역 합치기
+- 넘버링, 네이밍 진행하기
+2. 피그마
+- 타이핑 컴포넌트 생성 및 적용
+3. 개발환경 셋팅
+- 깃허브 연결
+- 피그마 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익일 회의 진행예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +498,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +665,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1036,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,6 +1272,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,14 +1290,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,7 +1342,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,14 +2021,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -2037,7 +2079,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2309,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4178,7 +4220,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4203,9 +4245,9 @@
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="3"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4228,7 +4270,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="49" t="s">
         <v>22</v>
       </c>
@@ -4292,12 +4334,12 @@
       <c r="W4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="71" t="s">
+      <c r="X4" s="68" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -4319,13 +4361,13 @@
       <c r="U5" s="50"/>
       <c r="V5" s="50"/>
       <c r="W5" s="50"/>
-      <c r="X5" s="72"/>
+      <c r="X5" s="69"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -4347,7 +4389,7 @@
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
       <c r="W6" s="51"/>
-      <c r="X6" s="73"/>
+      <c r="X6" s="70"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4420,11 +4462,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="63.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="74" t="s">
+        <v>84</v>
+      </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -4499,7 +4543,7 @@
       <c r="X11" s="41"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="49" t="s">
         <v>22</v>
       </c>
@@ -4563,12 +4607,12 @@
       <c r="W12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="71" t="s">
+      <c r="X12" s="68" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -4590,10 +4634,10 @@
       <c r="U13" s="50"/>
       <c r="V13" s="50"/>
       <c r="W13" s="50"/>
-      <c r="X13" s="72"/>
+      <c r="X13" s="69"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="70"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
@@ -4615,7 +4659,7 @@
       <c r="U14" s="51"/>
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="73"/>
+      <c r="X14" s="70"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -4719,7 +4763,7 @@
       <c r="X17" s="41"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="68"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="49" t="s">
         <v>22</v>
       </c>
@@ -4783,12 +4827,12 @@
       <c r="W18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="71" t="s">
+      <c r="X18" s="68" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -4810,10 +4854,10 @@
       <c r="U19" s="50"/>
       <c r="V19" s="50"/>
       <c r="W19" s="50"/>
-      <c r="X19" s="72"/>
+      <c r="X19" s="69"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="70"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
@@ -4835,7 +4879,7 @@
       <c r="U20" s="51"/>
       <c r="V20" s="51"/>
       <c r="W20" s="51"/>
-      <c r="X20" s="73"/>
+      <c r="X20" s="70"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -4908,11 +4952,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" s="12" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="75" t="s">
+        <v>85</v>
+      </c>
       <c r="D22" s="28"/>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
@@ -4966,7 +5012,7 @@
       <c r="X24" s="41"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="68"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="49" t="s">
         <v>22</v>
       </c>
@@ -5030,12 +5076,12 @@
       <c r="W25" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="X25" s="71" t="s">
+      <c r="X25" s="68" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -5057,10 +5103,10 @@
       <c r="U26" s="50"/>
       <c r="V26" s="50"/>
       <c r="W26" s="50"/>
-      <c r="X26" s="72"/>
+      <c r="X26" s="69"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="70"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
@@ -5082,7 +5128,7 @@
       <c r="U27" s="51"/>
       <c r="V27" s="51"/>
       <c r="W27" s="51"/>
-      <c r="X27" s="73"/>
+      <c r="X27" s="70"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5159,7 +5205,9 @@
       <c r="B29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -5187,76 +5235,15 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="G25:G27"/>
@@ -5272,14 +5259,75 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
